--- a/Резы/Респа для ВЕ-61б на 2019 год.xlsx
+++ b/Резы/Респа для ВЕ-61б на 2019 год.xlsx
@@ -1037,8 +1037,11 @@
       </c>
       <c r="G12" s="5" t="n"/>
       <c r="H12" s="6" t="n"/>
-      <c r="I12" s="3" t="n">
-        <v>203</v>
+      <c r="I12" s="3" t="inlineStr">
+        <is>
+          <t>203
+305</t>
+        </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
         <is>
@@ -1694,7 +1697,7 @@
       <c r="F10" s="5" t="n"/>
       <c r="G10" s="6" t="n"/>
       <c r="H10" s="3" t="n">
-        <v>203</v>
+        <v>305</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
@@ -1897,7 +1900,7 @@
       <c r="F18" s="13" t="n"/>
       <c r="G18" s="15" t="n"/>
       <c r="H18" s="11" t="n">
-        <v>203</v>
+        <v>316</v>
       </c>
       <c r="I18" s="11" t="inlineStr">
         <is>
@@ -2302,7 +2305,7 @@
       <c r="G11" s="6" t="n"/>
       <c r="H11" s="9" t="n"/>
       <c r="I11" s="3" t="n">
-        <v>203</v>
+        <v>305</v>
       </c>
       <c r="J11" s="3" t="inlineStr">
         <is>
@@ -2920,7 +2923,7 @@
       <c r="F11" s="5" t="n"/>
       <c r="G11" s="6" t="n"/>
       <c r="H11" s="3" t="n">
-        <v>203</v>
+        <v>305</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>

--- a/Резы/Респа для ВЕ-61б на 2019 год.xlsx
+++ b/Резы/Респа для ВЕ-61б на 2019 год.xlsx
@@ -65,15 +65,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -114,10 +114,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
@@ -159,14 +159,14 @@
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
@@ -187,49 +187,49 @@
       <left style="thin"/>
       <right style="thin"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
+      <left style="thick"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
   </borders>
@@ -1154,7 +1154,7 @@
       <c r="G15" s="9" t="n"/>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал
+          <t>ХЗ
 312</t>
         </is>
       </c>
@@ -1756,7 +1756,7 @@
       <c r="G12" s="6" t="n"/>
       <c r="H12" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="I12" s="3" t="inlineStr">
@@ -2402,7 +2402,7 @@
       <c r="H14" s="9" t="n"/>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал
+          <t>ХЗ
 ФЗК_зал</t>
         </is>
       </c>
